--- a/uploads/12345678908/jdelgadob-template.xlsx
+++ b/uploads/12345678908/jdelgadob-template.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Compromisos" r:id="rId4"/>
+    <sheet name="Compromisos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Matriz Integrada de Compromisos de la Unidad de Mi Unidad</t>
   </si>
@@ -47,19 +50,34 @@
   </si>
   <si>
     <t>Post-cierre</t>
+  </si>
+  <si>
+    <t>Hola</t>
+  </si>
+  <si>
+    <t>No se</t>
+  </si>
+  <si>
+    <t>Tampoco</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,21 +97,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,29 +462,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,6 +522,41 @@
       </c>
       <c r="K2" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43341</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -494,6 +564,6 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/uploads/12345678908/jdelgadob-template.xlsx
+++ b/uploads/12345678908/jdelgadob-template.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compromisos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="aspambasoc">Compromisos!$F$1:$F$2</definedName>
+    <definedName name="cierre">Compromisos!$K$1:$K$2</definedName>
+    <definedName name="codigoglobal">Compromisos!$C$1:$C$2</definedName>
+    <definedName name="comentarios">Compromisos!$I$1:$I$2</definedName>
+    <definedName name="contorigcomp">Compromisos!$G$1:$G$2</definedName>
+    <definedName name="nombrerevisor">Compromisos!$H$1:$H$2</definedName>
+    <definedName name="nrocorrelativo">Compromisos!$A$1:$A$2</definedName>
+    <definedName name="operacion">Compromisos!$J$1:$J$2</definedName>
+    <definedName name="origencompromiso">Compromisos!$B$1:$B$2</definedName>
+    <definedName name="pagina">Compromisos!$E$1:$E$2</definedName>
+    <definedName name="seccion">Compromisos!$D$1:$D$2</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>Matriz Integrada de Compromisos de la Unidad de Mi Unidad</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Matriz Integrada de Compromisos de la Unidad de null</t>
   </si>
   <si>
     <t>Número correlativo</t>
@@ -25,22 +38,25 @@
     <t>Origen compromiso</t>
   </si>
   <si>
+    <t>Código global</t>
+  </si>
+  <si>
     <t>Sección</t>
   </si>
   <si>
     <t>Página</t>
   </si>
   <si>
+    <t>Aspecto asociado</t>
+  </si>
+  <si>
     <t>Contenido original del compromiso</t>
   </si>
   <si>
-    <t>Resumen del compromiso</t>
-  </si>
-  <si>
-    <t>Fecha de inicio</t>
-  </si>
-  <si>
-    <t>Construcción</t>
+    <t>Nombre de revisor</t>
+  </si>
+  <si>
+    <t>Notas adicionales</t>
   </si>
   <si>
     <t>Operación</t>
@@ -49,22 +65,28 @@
     <t>Cierre</t>
   </si>
   <si>
-    <t>Post-cierre</t>
-  </si>
-  <si>
-    <t>Hola</t>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Global</t>
   </si>
   <si>
     <t>No se</t>
   </si>
   <si>
-    <t>Tampoco</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Contenido</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>No hay</t>
+  </si>
+  <si>
+    <t>cirujia</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -115,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -123,7 +145,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +487,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,32 +552,32 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3">
-        <v>43341</v>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
